--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>86.133623390517343</v>
+        <v>86.133623383160582</v>
       </c>
       <c r="C2">
-        <v>75.056349503106844</v>
+        <v>75.056349551386106</v>
       </c>
       <c r="D2">
-        <v>67.030250896944992</v>
+        <v>67.03025091601863</v>
       </c>
       <c r="E2">
-        <v>53.196407482284613</v>
+        <v>53.196407461521169</v>
       </c>
       <c r="F2">
-        <v>69.799910571925238</v>
+        <v>69.799910571323394</v>
       </c>
       <c r="G2">
-        <v>86.478818431130748</v>
+        <v>86.478818484758818</v>
       </c>
       <c r="H2">
-        <v>70.188048822877207</v>
+        <v>70.188048945823141</v>
       </c>
       <c r="I2">
-        <v>72.654781336795381</v>
+        <v>72.654781326733215</v>
       </c>
       <c r="J2">
-        <v>66.295026587352396</v>
+        <v>66.295026578554143</v>
       </c>
       <c r="K2">
-        <v>86.852420637866459</v>
+        <v>86.852420664925475</v>
       </c>
       <c r="L2">
-        <v>94.874862666438148</v>
+        <v>94.874862782273155</v>
       </c>
       <c r="M2">
-        <v>114.33247263514936</v>
+        <v>114.33247273292841</v>
       </c>
       <c r="N2">
-        <v>69.672653859080341</v>
+        <v>69.672653913720936</v>
       </c>
       <c r="O2">
-        <v>60.563857300097879</v>
+        <v>60.563857217366632</v>
       </c>
       <c r="P2">
-        <v>57.995664042744821</v>
+        <v>57.995664113561595</v>
       </c>
       <c r="Q2">
-        <v>94.613012804878636</v>
+        <v>94.61301282260284</v>
       </c>
       <c r="R2">
-        <v>112.46873649044231</v>
+        <v>112.46873636924262</v>
       </c>
       <c r="S2">
-        <v>45.948899775823918</v>
+        <v>45.948900204614453</v>
       </c>
       <c r="T2">
-        <v>44.779250371360199</v>
+        <v>44.779250349507564</v>
       </c>
       <c r="U2">
-        <v>89.531901674037655</v>
+        <v>89.531901721446516</v>
       </c>
       <c r="V2">
-        <v>74.240243049556909</v>
+        <v>74.240243055369604</v>
       </c>
       <c r="W2">
-        <v>108.35450885412459</v>
+        <v>108.35450916795773</v>
       </c>
       <c r="X2">
-        <v>86.622971439616521</v>
+        <v>86.622971419070652</v>
       </c>
       <c r="Y2">
-        <v>29.429038131085605</v>
+        <v>29.429038188625945</v>
       </c>
       <c r="Z2">
-        <v>60.597217977223558</v>
+        <v>60.597218051959025</v>
       </c>
       <c r="AA2">
-        <v>50.148213146014506</v>
+        <v>50.148212987002694</v>
       </c>
       <c r="AB2">
-        <v>54.158392713504597</v>
+        <v>54.158392824794191</v>
       </c>
       <c r="AC2">
-        <v>85.398110002865366</v>
+        <v>85.398110093632823</v>
       </c>
       <c r="AD2">
-        <v>38.862134541504759</v>
+        <v>38.862134640349133</v>
       </c>
       <c r="AE2">
-        <v>73.089579185425066</v>
+        <v>73.089579190730333</v>
       </c>
       <c r="AF2">
-        <v>60.546508651798078</v>
+        <v>60.546508743591332</v>
       </c>
       <c r="AG2">
-        <v>59.27860824071368</v>
+        <v>59.278608353642547</v>
       </c>
       <c r="AH2">
-        <v>52.426575161224498</v>
+        <v>52.426575230476168</v>
       </c>
       <c r="AI2">
-        <v>55.004216370339797</v>
+        <v>55.004216747577715</v>
       </c>
       <c r="AJ2">
-        <v>67.268154867192365</v>
+        <v>67.268154965490396</v>
       </c>
       <c r="AK2">
-        <v>67.882338581826247</v>
+        <v>67.882338625918777</v>
       </c>
       <c r="AL2">
-        <v>93.926418232792102</v>
+        <v>93.926418331758669</v>
       </c>
       <c r="AM2">
-        <v>51.754041882109412</v>
+        <v>51.754042176312332</v>
       </c>
       <c r="AN2">
-        <v>58.524396043843353</v>
+        <v>58.524396165394521</v>
       </c>
       <c r="AO2">
-        <v>35.277523167199334</v>
+        <v>35.277522841739199</v>
       </c>
       <c r="AP2">
-        <v>50.637660514627711</v>
+        <v>50.637660607626934</v>
       </c>
       <c r="AQ2">
-        <v>87.162075776110797</v>
+        <v>87.162076000482514</v>
       </c>
       <c r="AR2">
-        <v>41.243162755162572</v>
+        <v>41.243162633306582</v>
       </c>
       <c r="AS2">
-        <v>43.250062997251213</v>
+        <v>43.250063172298539</v>
       </c>
       <c r="AT2">
-        <v>61.288631585650123</v>
+        <v>61.288631290990821</v>
       </c>
       <c r="AU2">
-        <v>54.093716935614367</v>
+        <v>54.093717129669564</v>
       </c>
       <c r="AV2">
-        <v>56.380676284994792</v>
+        <v>56.380676193610824</v>
       </c>
       <c r="AW2">
-        <v>74.740969221008314</v>
+        <v>74.740969561476987</v>
       </c>
       <c r="AX2">
-        <v>46.251115761239227</v>
+        <v>46.25111590954679</v>
       </c>
       <c r="AY2">
-        <v>27.948600629178195</v>
+        <v>27.948600759762243</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>78.818915642283599</v>
+        <v>78.818915976071153</v>
       </c>
       <c r="C3">
-        <v>77.020050446912464</v>
+        <v>77.020050468874686</v>
       </c>
       <c r="D3">
-        <v>46.234991471045305</v>
+        <v>46.23499175207494</v>
       </c>
       <c r="E3">
-        <v>52.181696280790611</v>
+        <v>52.18169632790778</v>
       </c>
       <c r="F3">
-        <v>77.824322464537332</v>
+        <v>77.824322531951523</v>
       </c>
       <c r="G3">
-        <v>60.775890943951282</v>
+        <v>60.775890992776105</v>
       </c>
       <c r="H3">
-        <v>94.5404877975608</v>
+        <v>94.540487768628566</v>
       </c>
       <c r="I3">
-        <v>84.459624171249132</v>
+        <v>84.459624213849679</v>
       </c>
       <c r="J3">
-        <v>56.13746166317258</v>
+        <v>56.137461773685281</v>
       </c>
       <c r="K3">
-        <v>-9.6393367620064456</v>
+        <v>-9.6393367376193311</v>
       </c>
       <c r="L3">
-        <v>57.175400138577551</v>
+        <v>57.175400205304157</v>
       </c>
       <c r="M3">
-        <v>91.123822918173758</v>
+        <v>91.124942740622245</v>
       </c>
       <c r="N3">
-        <v>68.661302480696264</v>
+        <v>68.661302490993805</v>
       </c>
       <c r="O3">
-        <v>143.18188738576256</v>
+        <v>143.18188739632481</v>
       </c>
       <c r="P3">
-        <v>52.638701961574199</v>
+        <v>52.638702073829272</v>
       </c>
       <c r="Q3">
-        <v>73.648132957064263</v>
+        <v>73.648133070725692</v>
       </c>
       <c r="R3">
-        <v>89.540865707054067</v>
+        <v>89.540865983322149</v>
       </c>
       <c r="S3">
-        <v>43.412013261155096</v>
+        <v>43.412013358571876</v>
       </c>
       <c r="T3">
-        <v>50.239352384378456</v>
+        <v>50.239352460802309</v>
       </c>
       <c r="U3">
-        <v>60.928200409066989</v>
+        <v>60.928200516290751</v>
       </c>
       <c r="V3">
-        <v>58.46922225059653</v>
+        <v>58.46922222411407</v>
       </c>
       <c r="W3">
-        <v>91.044921660362021</v>
+        <v>91.044921838134158</v>
       </c>
       <c r="X3">
-        <v>102.12399531483238</v>
+        <v>102.12399536418732</v>
       </c>
       <c r="Y3">
-        <v>16.101591572227562</v>
+        <v>16.101591749009792</v>
       </c>
       <c r="Z3">
-        <v>42.628259205835448</v>
+        <v>42.628259293310961</v>
       </c>
       <c r="AA3">
-        <v>53.678187150190773</v>
+        <v>53.67818711806467</v>
       </c>
       <c r="AB3">
-        <v>54.849892642362128</v>
+        <v>54.849892744315234</v>
       </c>
       <c r="AC3">
-        <v>53.450163829856336</v>
+        <v>53.450164026896431</v>
       </c>
       <c r="AD3">
-        <v>43.978897183656947</v>
+        <v>43.978897420976516</v>
       </c>
       <c r="AE3">
-        <v>55.705339180801495</v>
+        <v>55.705339406861029</v>
       </c>
       <c r="AF3">
-        <v>64.972056131087683</v>
+        <v>64.97205627649943</v>
       </c>
       <c r="AG3">
-        <v>70.905231425506997</v>
+        <v>70.905231518004967</v>
       </c>
       <c r="AH3">
-        <v>75.911215596288656</v>
+        <v>75.911215665801265</v>
       </c>
       <c r="AI3">
-        <v>16.882759566566815</v>
+        <v>16.882761592439451</v>
       </c>
       <c r="AJ3">
-        <v>47.755127177561576</v>
+        <v>47.755127336359557</v>
       </c>
       <c r="AK3">
-        <v>64.226894746333542</v>
+        <v>64.226895022209106</v>
       </c>
       <c r="AL3">
-        <v>63.555261087794932</v>
+        <v>63.555261255849295</v>
       </c>
       <c r="AM3">
-        <v>49.557332998211955</v>
+        <v>49.55733322779772</v>
       </c>
       <c r="AN3">
-        <v>105.79085072965992</v>
+        <v>105.79085078289718</v>
       </c>
       <c r="AO3">
-        <v>42.816078990597838</v>
+        <v>42.816079383223801</v>
       </c>
       <c r="AP3">
-        <v>75.844933933203151</v>
+        <v>75.844934039684006</v>
       </c>
       <c r="AQ3">
-        <v>63.77302742052008</v>
+        <v>63.773027543911951</v>
       </c>
       <c r="AR3">
-        <v>33.742231960492894</v>
+        <v>33.742231843679868</v>
       </c>
       <c r="AS3">
-        <v>61.573291704325648</v>
+        <v>61.573291670750471</v>
       </c>
       <c r="AT3">
-        <v>39.226947555179031</v>
+        <v>39.226947814260612</v>
       </c>
       <c r="AU3">
-        <v>73.097305390760411</v>
+        <v>73.097305625946518</v>
       </c>
       <c r="AV3">
-        <v>66.916867350027729</v>
+        <v>66.916867599629143</v>
       </c>
       <c r="AW3">
-        <v>71.898953168098828</v>
+        <v>71.898955107196599</v>
       </c>
       <c r="AX3">
-        <v>69.23677329572206</v>
+        <v>69.236773806861649</v>
       </c>
       <c r="AY3">
-        <v>17.913559278409878</v>
+        <v>17.913559413414426</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>86.133623383160582</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>75.056349551386106</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>67.03025091601863</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>53.196407461521169</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>69.799910571323394</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>86.478818484758818</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>70.188048945823141</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>72.654781326733215</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>66.295026578554143</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>86.852420664925475</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>94.874862782273155</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>114.33247273292841</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>69.672653913720936</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>60.563857217366632</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>57.995664113561595</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>94.61301282260284</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>112.46873636924262</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>45.948900204614453</v>
+        <v>67.724148851382409</v>
       </c>
       <c r="T2">
         <v>44.779250349507564</v>
@@ -588,55 +477,55 @@
         <v>60.597218051959025</v>
       </c>
       <c r="AA2">
-        <v>50.148212987002694</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>54.158392824794191</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>85.398110093632823</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>38.862134640349133</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>73.089579190730333</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>60.546508743591332</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>59.278608353642547</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>52.426575230476168</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>55.004216747577715</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>67.268154965490396</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>67.882338625918777</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>93.926418331758669</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>51.754042176312332</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>58.524396165394521</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>35.277522841739199</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>50.637660607626934</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>87.162076000482514</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>41.243162633306582</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>78.818915976071153</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>77.020050468874686</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>46.23499175207494</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>52.18169632790778</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>77.824322531951523</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>60.775890992776105</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>94.540487768628566</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>84.459624213849679</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>56.137461773685281</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-9.6393367376193311</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>57.175400205304157</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>91.124942740622245</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>68.661302490993805</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>143.18188739632481</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>52.638702073829272</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>73.648133070725692</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>89.540865983322149</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>43.412013358571876</v>
@@ -743,55 +629,55 @@
         <v>42.628259293310961</v>
       </c>
       <c r="AA3">
-        <v>53.67818711806467</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>54.849892744315234</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>53.450164026896431</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>43.978897420976516</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>55.705339406861029</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>64.97205627649943</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>70.905231518004967</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>75.911215665801265</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>16.882761592439451</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>47.755127336359557</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>64.226895022209106</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>63.555261255849295</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>49.55733322779772</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>105.79085078289718</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>42.816079383223801</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>75.844934039684006</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>63.773027543911951</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>33.742231843679868</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>91.461098074384381</v>
+        <v>60.262886232055124</v>
       </c>
       <c r="C2">
-        <v>83.196681513475738</v>
+        <v>60.281544889481289</v>
       </c>
       <c r="D2">
-        <v>67.217824005166733</v>
+        <v>57.114956082693503</v>
       </c>
       <c r="E2">
-        <v>82.938717821710625</v>
+        <v>64.260037904442086</v>
       </c>
       <c r="F2">
         <v>73.122639936359974</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>77.249139779881943</v>
+        <v>42.657777568082231</v>
       </c>
       <c r="C3">
-        <v>75.052628274065995</v>
+        <v>56.825263581964592</v>
       </c>
       <c r="D3">
-        <v>53.629520855277477</v>
+        <v>54.670250529191847</v>
       </c>
       <c r="E3">
-        <v>42.536705229409556</v>
+        <v>82.926792321616205</v>
       </c>
       <c r="F3">
         <v>78.782536214564402</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>91.461098074384381</v>
+        <v>85.66330624518065</v>
       </c>
       <c r="C2">
-        <v>83.196681513475738</v>
+        <v>60.262886232055124</v>
       </c>
       <c r="D2">
-        <v>67.217824005166733</v>
+        <v>49.513155032052765</v>
       </c>
       <c r="E2">
-        <v>82.938717821710625</v>
+        <v>57.114956082693503</v>
       </c>
       <c r="F2">
         <v>73.122639936359974</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>77.249139779881943</v>
+        <v>69.666806315350954</v>
       </c>
       <c r="C3">
-        <v>75.052628274065995</v>
+        <v>42.657777568082231</v>
       </c>
       <c r="D3">
-        <v>53.629520855277477</v>
+        <v>32.731883157846063</v>
       </c>
       <c r="E3">
-        <v>40.880485831968834</v>
+        <v>54.670250529191847</v>
       </c>
       <c r="F3">
         <v>78.782536214564402</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>91.461098060969263</v>
+      </c>
+      <c r="C2">
+        <v>83.196681972331191</v>
+      </c>
+      <c r="D2">
+        <v>67.217824044955947</v>
+      </c>
+      <c r="E2">
+        <v>82.938717781854862</v>
+      </c>
+      <c r="F2">
+        <v>73.122639929260785</v>
+      </c>
+      <c r="G2">
+        <v>70.618637998888204</v>
+      </c>
+      <c r="H2">
+        <v>85.052784666719248</v>
+      </c>
+      <c r="I2">
+        <v>89.590696049931978</v>
+      </c>
+      <c r="J2">
+        <v>72.951320518074809</v>
+      </c>
+      <c r="K2">
+        <v>87.115138666449027</v>
+      </c>
+      <c r="L2">
+        <v>77.181453686874463</v>
+      </c>
+      <c r="M2">
+        <v>78.487371824256755</v>
+      </c>
+      <c r="N2">
         <v>85.66330624518065</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>60.262886232055124</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>88.715055721133908</v>
+      </c>
+      <c r="Q2">
+        <v>80.901868996106742</v>
+      </c>
+      <c r="R2">
+        <v>60.281544889481289</v>
+      </c>
+      <c r="T2">
+        <v>85.068910159655502</v>
+      </c>
+      <c r="U2">
+        <v>56.297741107017664</v>
+      </c>
+      <c r="V2">
+        <v>62.725209311313776</v>
+      </c>
+      <c r="W2">
+        <v>66.642895973339705</v>
+      </c>
+      <c r="X2">
+        <v>78.051719065065328</v>
+      </c>
+      <c r="Y2">
+        <v>55.215079876971238</v>
+      </c>
+      <c r="Z2">
+        <v>31.934855364191648</v>
+      </c>
+      <c r="AA2">
+        <v>51.69099856767523</v>
+      </c>
+      <c r="AB2">
+        <v>38.868828470414151</v>
+      </c>
+      <c r="AC2">
+        <v>69.021708723902762</v>
+      </c>
+      <c r="AD2">
+        <v>55.412997391541971</v>
+      </c>
+      <c r="AE2">
+        <v>78.277202275792973</v>
+      </c>
+      <c r="AF2">
+        <v>63.355130488797819</v>
+      </c>
+      <c r="AG2">
+        <v>69.779712093374414</v>
+      </c>
+      <c r="AH2">
+        <v>58.202004276377018</v>
+      </c>
+      <c r="AI2">
+        <v>35.830454622635287</v>
+      </c>
+      <c r="AJ2">
+        <v>69.579256978822727</v>
+      </c>
+      <c r="AK2">
+        <v>72.435092255475965</v>
+      </c>
+      <c r="AL2">
+        <v>73.652360430508608</v>
+      </c>
+      <c r="AM2">
         <v>49.513155032052765</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>57.114956082693503</v>
       </c>
-      <c r="F2">
-        <v>73.122639936359974</v>
-      </c>
-      <c r="G2">
-        <v>70.618637446347591</v>
-      </c>
-      <c r="H2">
-        <v>85.052784436362856</v>
-      </c>
-      <c r="I2">
-        <v>89.59069611671471</v>
-      </c>
-      <c r="J2">
-        <v>72.951320532972048</v>
-      </c>
-      <c r="K2">
-        <v>87.115138602811356</v>
-      </c>
-      <c r="L2">
-        <v>77.181452100748203</v>
-      </c>
-      <c r="M2">
-        <v>78.487371694055781</v>
-      </c>
-      <c r="N2">
-        <v>85.66330601945505</v>
-      </c>
-      <c r="O2">
-        <v>60.262886403952706</v>
-      </c>
-      <c r="P2">
-        <v>88.715055302046608</v>
-      </c>
-      <c r="Q2">
-        <v>80.901868927087179</v>
-      </c>
-      <c r="R2">
-        <v>60.28154528677041</v>
-      </c>
-      <c r="T2">
-        <v>85.068910265174509</v>
-      </c>
-      <c r="U2">
-        <v>56.297740898605618</v>
-      </c>
-      <c r="V2">
-        <v>62.725209253436596</v>
-      </c>
-      <c r="W2">
-        <v>66.642895479898428</v>
-      </c>
-      <c r="X2">
-        <v>78.051719118606201</v>
-      </c>
-      <c r="Y2">
-        <v>55.215079681706023</v>
-      </c>
-      <c r="Z2">
-        <v>31.934854842981782</v>
-      </c>
-      <c r="AA2">
-        <v>51.690998829772681</v>
-      </c>
-      <c r="AB2">
-        <v>38.868828236652661</v>
-      </c>
-      <c r="AC2">
-        <v>69.021708529477422</v>
-      </c>
-      <c r="AD2">
-        <v>55.412997210446299</v>
-      </c>
-      <c r="AE2">
-        <v>78.27720226576983</v>
-      </c>
-      <c r="AF2">
-        <v>63.355130188824823</v>
-      </c>
-      <c r="AG2">
-        <v>69.779711881660376</v>
-      </c>
-      <c r="AH2">
-        <v>58.202004080456859</v>
-      </c>
-      <c r="AI2">
-        <v>35.830453697715988</v>
-      </c>
-      <c r="AJ2">
-        <v>69.579256792791782</v>
-      </c>
-      <c r="AK2">
-        <v>72.435092166974741</v>
-      </c>
-      <c r="AL2">
-        <v>73.652360152618371</v>
-      </c>
-      <c r="AM2">
-        <v>49.513154367384473</v>
-      </c>
-      <c r="AN2">
-        <v>57.114955714278395</v>
-      </c>
       <c r="AO2">
-        <v>50.970083473580296</v>
+        <v>50.970082512114324</v>
       </c>
       <c r="AP2">
-        <v>60.367324525429424</v>
+        <v>60.367324933915114</v>
       </c>
       <c r="AQ2">
-        <v>64.260037388517546</v>
+        <v>64.260037904442086</v>
       </c>
       <c r="AR2">
-        <v>80.468370500121083</v>
+        <v>80.468370023885655</v>
       </c>
       <c r="AS2">
-        <v>52.349342090884754</v>
+        <v>52.349342436756544</v>
       </c>
       <c r="AT2">
-        <v>33.691190928453338</v>
+        <v>33.691189742586317</v>
       </c>
       <c r="AU2">
-        <v>81.428700109299228</v>
+        <v>81.428701114775677</v>
       </c>
       <c r="AV2">
-        <v>36.480754319352151</v>
+        <v>36.480754187828133</v>
       </c>
       <c r="AW2">
-        <v>54.626469532012479</v>
+        <v>54.626470422966818</v>
       </c>
       <c r="AX2">
-        <v>50.966637589321373</v>
+        <v>50.966637926438011</v>
       </c>
       <c r="AY2">
-        <v>45.789007288953265</v>
+        <v>45.78900768637466</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>77.249140429506937</v>
+      </c>
+      <c r="C3">
+        <v>75.052628315918696</v>
+      </c>
+      <c r="D3">
+        <v>53.629521998005714</v>
+      </c>
+      <c r="E3">
+        <v>40.88048645716399</v>
+      </c>
+      <c r="F3">
+        <v>78.782536362825013</v>
+      </c>
+      <c r="G3">
+        <v>70.308500926048708</v>
+      </c>
+      <c r="H3">
+        <v>79.267267221495544</v>
+      </c>
+      <c r="I3">
+        <v>84.519140475544802</v>
+      </c>
+      <c r="J3">
+        <v>64.533014575006689</v>
+      </c>
+      <c r="K3">
+        <v>69.839326467621618</v>
+      </c>
+      <c r="L3">
+        <v>71.777708828432765</v>
+      </c>
+      <c r="M3">
+        <v>73.93017340331771</v>
+      </c>
+      <c r="N3">
         <v>69.666806315350954</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>42.657777568082231</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>46.103721510375664</v>
+      </c>
+      <c r="Q3">
+        <v>82.887262168178182</v>
+      </c>
+      <c r="R3">
+        <v>56.825263581964592</v>
+      </c>
+      <c r="S3">
+        <v>60.762346899605177</v>
+      </c>
+      <c r="T3">
+        <v>67.427925769814237</v>
+      </c>
+      <c r="U3">
+        <v>62.042670178917348</v>
+      </c>
+      <c r="V3">
+        <v>72.691656306894544</v>
+      </c>
+      <c r="W3">
+        <v>60.550521417270453</v>
+      </c>
+      <c r="X3">
+        <v>71.159263801451786</v>
+      </c>
+      <c r="Y3">
+        <v>31.248297691171782</v>
+      </c>
+      <c r="Z3">
+        <v>31.95032928271279</v>
+      </c>
+      <c r="AA3">
+        <v>61.307641232784306</v>
+      </c>
+      <c r="AB3">
+        <v>60.916118347520097</v>
+      </c>
+      <c r="AC3">
+        <v>69.157585289596625</v>
+      </c>
+      <c r="AD3">
+        <v>57.945845309951608</v>
+      </c>
+      <c r="AE3">
+        <v>71.945711166047232</v>
+      </c>
+      <c r="AF3">
+        <v>60.683112459711573</v>
+      </c>
+      <c r="AG3">
+        <v>69.546655971867565</v>
+      </c>
+      <c r="AH3">
+        <v>70.110711753588376</v>
+      </c>
+      <c r="AI3">
+        <v>60.632201681162691</v>
+      </c>
+      <c r="AJ3">
+        <v>53.771851255460135</v>
+      </c>
+      <c r="AK3">
+        <v>74.273227038984729</v>
+      </c>
+      <c r="AL3">
+        <v>58.511901746207506</v>
+      </c>
+      <c r="AM3">
         <v>32.731883157846063</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>54.670250529191847</v>
       </c>
-      <c r="F3">
-        <v>78.782536214564402</v>
-      </c>
-      <c r="G3">
-        <v>70.308500800362935</v>
-      </c>
-      <c r="H3">
-        <v>79.267267301264894</v>
-      </c>
-      <c r="I3">
-        <v>84.519140287417997</v>
-      </c>
-      <c r="J3">
-        <v>64.533014293266461</v>
-      </c>
-      <c r="K3">
-        <v>69.839326440212346</v>
-      </c>
-      <c r="L3">
-        <v>71.777708629998287</v>
-      </c>
-      <c r="M3">
-        <v>73.927008086873997</v>
-      </c>
-      <c r="N3">
-        <v>69.666806284159478</v>
-      </c>
-      <c r="O3">
-        <v>42.657777528966953</v>
-      </c>
-      <c r="P3">
-        <v>46.103721156761324</v>
-      </c>
-      <c r="Q3">
-        <v>82.887261864806035</v>
-      </c>
-      <c r="R3">
-        <v>56.825262913479015</v>
-      </c>
-      <c r="S3">
-        <v>60.762346456054438</v>
-      </c>
-      <c r="T3">
-        <v>67.427925449790806</v>
-      </c>
-      <c r="U3">
-        <v>62.042669563442985</v>
-      </c>
-      <c r="V3">
-        <v>72.691659012545557</v>
-      </c>
-      <c r="W3">
-        <v>60.550521365306587</v>
-      </c>
-      <c r="X3">
-        <v>71.159263603234734</v>
-      </c>
-      <c r="Y3">
-        <v>31.248296971491342</v>
-      </c>
-      <c r="Z3">
-        <v>31.950328819974157</v>
-      </c>
-      <c r="AA3">
-        <v>61.307641288321769</v>
-      </c>
-      <c r="AB3">
-        <v>60.916118164225161</v>
-      </c>
-      <c r="AC3">
-        <v>69.157584808667565</v>
-      </c>
-      <c r="AD3">
-        <v>57.945844807406509</v>
-      </c>
-      <c r="AE3">
-        <v>71.945710741427519</v>
-      </c>
-      <c r="AF3">
-        <v>60.683112098916872</v>
-      </c>
-      <c r="AG3">
-        <v>69.546655809650659</v>
-      </c>
-      <c r="AH3">
-        <v>70.110711610966916</v>
-      </c>
-      <c r="AI3">
-        <v>60.632200856362729</v>
-      </c>
-      <c r="AJ3">
-        <v>53.771850933661078</v>
-      </c>
-      <c r="AK3">
-        <v>74.273226502107875</v>
-      </c>
-      <c r="AL3">
-        <v>58.511901322508507</v>
-      </c>
-      <c r="AM3">
-        <v>32.731882706869051</v>
-      </c>
-      <c r="AN3">
-        <v>54.670250451467695</v>
-      </c>
       <c r="AO3">
-        <v>35.347108333358896</v>
+        <v>35.347109314177011</v>
       </c>
       <c r="AP3">
-        <v>56.564965460124043</v>
+        <v>56.564965751065003</v>
       </c>
       <c r="AQ3">
-        <v>82.926792122798886</v>
+        <v>82.926792321616205</v>
       </c>
       <c r="AR3">
-        <v>73.58433495384557</v>
+        <v>73.584334341964095</v>
       </c>
       <c r="AS3">
-        <v>67.232102067033452</v>
+        <v>67.232101992310263</v>
       </c>
       <c r="AT3">
-        <v>39.56281281490449</v>
+        <v>39.562813557817208</v>
       </c>
       <c r="AU3">
-        <v>81.030705555885888</v>
+        <v>81.030706810765125</v>
       </c>
       <c r="AV3">
-        <v>54.257410992351218</v>
+        <v>54.257411424660887</v>
       </c>
       <c r="AW3">
-        <v>57.677879139099318</v>
+        <v>57.677883099541482</v>
       </c>
       <c r="AX3">
-        <v>62.243894344592206</v>
+        <v>62.243895625262184</v>
       </c>
       <c r="AY3">
-        <v>36.610030447887418</v>
+        <v>36.610030906672058</v>
       </c>
     </row>
   </sheetData>
